--- a/biology/Médecine/District_hospitalier_de_Savonie_orientale/District_hospitalier_de_Savonie_orientale.xlsx
+++ b/biology/Médecine/District_hospitalier_de_Savonie_orientale/District_hospitalier_de_Savonie_orientale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le district hospitalier de Savonie orientale (finnois : Itä-Savon sairaanhoitopiiri, sigle ISSHP ou SOSTERI) est un district hospitalier de la région de Savonlinna[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le district hospitalier de Savonie orientale (finnois : Itä-Savon sairaanhoitopiiri, sigle ISSHP ou SOSTERI) est un district hospitalier de la région de Savonlinna.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le district hospitalier de Savonie orientale offre ses services de santé à environ 45 500  habitants.
 </t>
@@ -542,9 +556,11 @@
           <t>Municipalités membres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La liste des municipalités membres de Savonie orientale est[1]:
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La liste des municipalités membres de Savonie orientale est:
 Enonkoski
 Rantasalmi
 Savonlinna
@@ -578,9 +594,11 @@
           <t>Hôpitaux</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Les établissements hospitaliers sont[1]:
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Les établissements hospitaliers sont:
 Centre hospitalier de Savonlinna
 Hôpital universitaire de Kuopio</t>
         </is>
